--- a/docs/StructureDefinition-us-core-patient.xlsx
+++ b/docs/StructureDefinition-us-core-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="615">
   <si>
     <t>Property</t>
   </si>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>\-</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-6:Either Patient.name.given and/or Patient.name.family SHALL be present or a Data Absent Reason Extension SHALL be present. {(name.family.exists() or name.given.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2516,13 +2512,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -2536,7 +2532,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2547,28 +2543,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2618,13 +2614,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2650,7 +2646,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2661,25 +2657,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2730,19 +2726,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2762,7 +2758,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2773,28 +2769,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2844,19 +2840,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2876,7 +2872,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2887,7 +2883,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2899,16 +2895,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2934,43 +2930,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2990,18 +2986,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -3013,16 +3009,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3072,22 +3068,22 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -3104,11 +3100,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3127,16 +3123,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3186,7 +3182,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -3201,7 +3197,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3218,7 +3214,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3241,13 +3237,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3286,17 +3282,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -3308,7 +3304,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -3328,10 +3324,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -3341,7 +3337,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -3353,13 +3349,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3410,7 +3406,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3419,10 +3415,10 @@
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3442,10 +3438,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>78</v>
@@ -3455,7 +3451,7 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3467,13 +3463,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3524,7 +3520,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3533,10 +3529,10 @@
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3556,10 +3552,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
@@ -3581,13 +3577,13 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3638,7 +3634,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3647,10 +3643,10 @@
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3670,10 +3666,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3683,7 +3679,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3695,16 +3691,16 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3754,7 +3750,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3763,13 +3759,13 @@
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3786,10 +3782,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3799,7 +3795,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3811,13 +3807,13 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3868,7 +3864,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3877,10 +3873,10 @@
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
@@ -3900,11 +3896,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3917,25 +3913,25 @@
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3984,7 +3980,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3996,10 +3992,10 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4016,7 +4012,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4024,32 +4020,32 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4098,7 +4094,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -4110,19 +4106,19 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4130,7 +4126,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4141,7 +4137,7 @@
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -4153,13 +4149,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4210,22 +4206,22 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -4242,11 +4238,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4265,16 +4261,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4312,19 +4308,19 @@
         <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB18" t="s" s="2">
+      <c r="AE18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -4336,10 +4332,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4356,7 +4352,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4367,31 +4363,31 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -4416,47 +4412,47 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4464,7 +4460,7 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4472,7 +4468,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4483,31 +4479,31 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -4532,55 +4528,55 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4588,7 +4584,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4596,34 +4592,34 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -4636,67 +4632,67 @@
         <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4704,7 +4700,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4712,31 +4708,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4750,67 +4746,67 @@
         <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4818,7 +4814,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4829,25 +4825,25 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4898,31 +4894,31 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4930,7 +4926,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4941,28 +4937,28 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5012,31 +5008,31 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5044,7 +5040,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5055,103 +5051,103 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P25" t="s" s="2">
+      <c r="Q25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Q25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -5162,7 +5158,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5170,34 +5166,34 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -5246,7 +5242,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -5258,19 +5254,19 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5278,7 +5274,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5289,7 +5285,7 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5301,13 +5297,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5358,22 +5354,22 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5390,11 +5386,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5413,16 +5409,16 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5460,19 +5456,19 @@
         <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB28" t="s" s="2">
+      <c r="AE28" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5484,10 +5480,10 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5504,7 +5500,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5515,31 +5511,31 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5564,55 +5560,55 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5620,7 +5616,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5631,31 +5627,31 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -5704,31 +5700,31 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5736,39 +5732,39 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5818,31 +5814,31 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH31" t="s" s="2">
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AI31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5850,11 +5846,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5864,25 +5860,25 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5932,7 +5928,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5941,22 +5937,22 @@
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5964,7 +5960,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5984,16 +5980,16 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6044,7 +6040,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -6056,19 +6052,19 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6076,7 +6072,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6096,16 +6092,16 @@
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6156,7 +6152,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -6168,19 +6164,19 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6188,7 +6184,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6199,29 +6195,29 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -6270,31 +6266,31 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6302,7 +6298,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6322,22 +6318,22 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -6386,7 +6382,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -6398,19 +6394,19 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6418,7 +6414,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6429,7 +6425,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6441,13 +6437,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6498,22 +6494,22 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6530,11 +6526,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6553,16 +6549,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6600,19 +6596,19 @@
         <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB38" t="s" s="2">
+      <c r="AE38" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6624,10 +6620,10 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -6644,7 +6640,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6652,28 +6648,28 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6700,55 +6696,55 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
+      <c r="AF39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH39" t="s" s="2">
+      <c r="AI39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AI39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6756,7 +6752,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6764,34 +6760,34 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6840,31 +6836,31 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6872,7 +6868,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6883,31 +6879,31 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H41" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6932,53 +6928,53 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6986,7 +6982,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6997,28 +6993,28 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7068,22 +7064,22 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -7092,7 +7088,7 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7100,7 +7096,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7111,25 +7107,25 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7180,22 +7176,22 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7204,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7212,7 +7208,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7220,34 +7216,34 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7272,53 +7268,53 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7326,7 +7322,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7337,31 +7333,31 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7410,39 +7406,39 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7453,31 +7449,31 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7526,31 +7522,31 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7558,7 +7554,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7572,28 +7568,28 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7642,7 +7638,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7654,19 +7650,19 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7674,7 +7670,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7685,7 +7681,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7697,13 +7693,13 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7754,22 +7750,22 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7786,11 +7782,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7809,16 +7805,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7856,19 +7852,19 @@
         <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB49" t="s" s="2">
+      <c r="AE49" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7880,10 +7876,10 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7900,7 +7896,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7911,31 +7907,31 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7948,67 +7944,67 @@
         <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="T50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE50" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -8016,7 +8012,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8027,28 +8023,28 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8062,67 +8058,67 @@
         <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="T51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X51" t="s" s="2">
+      <c r="Y51" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
+      <c r="AF51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8130,7 +8126,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8141,31 +8137,31 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -8178,67 +8174,67 @@
         <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8246,7 +8242,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8260,22 +8256,22 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8290,43 +8286,43 @@
         <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -8338,19 +8334,19 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8358,36 +8354,36 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8402,67 +8398,67 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="T54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8470,39 +8466,39 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8516,67 +8512,67 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="T55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8584,36 +8580,36 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8640,55 +8636,55 @@
         <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8696,36 +8692,36 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8740,67 +8736,67 @@
         <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="T57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8808,7 +8804,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8819,28 +8815,28 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8890,31 +8886,31 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
+      <c r="AK58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8922,7 +8918,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8933,29 +8929,29 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8968,67 +8964,67 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="T59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
+      <c r="AF59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9036,7 +9032,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9047,7 +9043,7 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9059,17 +9055,17 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -9094,55 +9090,55 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9150,7 +9146,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9161,7 +9157,7 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9173,19 +9169,19 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -9234,31 +9230,31 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9266,7 +9262,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9289,19 +9285,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9350,7 +9346,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -9362,19 +9358,19 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9382,7 +9378,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9405,19 +9401,19 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9466,7 +9462,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9478,13 +9474,13 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AK63" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
@@ -9498,7 +9494,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9509,7 +9505,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9521,13 +9517,13 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9578,22 +9574,22 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -9610,11 +9606,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9633,16 +9629,16 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9692,7 +9688,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9704,10 +9700,10 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9724,11 +9720,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9741,25 +9737,25 @@
         <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="M66" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9808,7 +9804,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9820,10 +9816,10 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9840,7 +9836,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9863,17 +9859,17 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9898,14 +9894,14 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9922,7 +9918,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9934,19 +9930,19 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9954,7 +9950,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9965,7 +9961,7 @@
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -9977,17 +9973,17 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -10036,31 +10032,31 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10068,7 +10064,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10091,19 +10087,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -10152,7 +10148,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -10164,19 +10160,19 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10184,7 +10180,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10195,7 +10191,7 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10207,17 +10203,17 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -10266,31 +10262,31 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10298,7 +10294,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10309,7 +10305,7 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10321,17 +10317,17 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10356,55 +10352,55 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10412,7 +10408,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10423,7 +10419,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10435,17 +10431,17 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10494,31 +10490,31 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AI72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
+      <c r="AK72" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10526,7 +10522,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10537,7 +10533,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10549,13 +10545,13 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10606,25 +10602,25 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
@@ -10638,7 +10634,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10661,19 +10657,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10722,7 +10718,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10734,13 +10730,13 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
@@ -10754,7 +10750,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10765,7 +10761,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10777,13 +10773,13 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10834,22 +10830,22 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10866,11 +10862,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10889,16 +10885,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10948,7 +10944,7 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10960,10 +10956,10 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -10980,11 +10976,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10997,25 +10993,25 @@
         <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="M77" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -11064,7 +11060,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -11076,10 +11072,10 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11096,7 +11092,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11104,14 +11100,14 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11119,19 +11115,19 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -11156,53 +11152,53 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
+      <c r="AK78" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11210,7 +11206,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11221,7 +11217,7 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11233,19 +11229,19 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
@@ -11294,31 +11290,31 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11326,11 +11322,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11349,16 +11345,16 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11408,7 +11404,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11420,19 +11416,19 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11440,7 +11436,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11451,31 +11447,31 @@
         <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>78</v>
@@ -11524,25 +11520,25 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
@@ -11556,7 +11552,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11573,25 +11569,25 @@
         <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11640,7 +11636,7 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -11652,13 +11648,13 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
@@ -11672,7 +11668,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11683,7 +11679,7 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11695,13 +11691,13 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11752,22 +11748,22 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11784,11 +11780,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11807,16 +11803,16 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M84" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11866,7 +11862,7 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -11878,10 +11874,10 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -11898,11 +11894,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11915,25 +11911,25 @@
         <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L85" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="M85" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11982,7 +11978,7 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -11994,10 +11990,10 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12014,7 +12010,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12022,31 +12018,31 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F86" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J86" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12096,31 +12092,31 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12128,7 +12124,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12136,28 +12132,28 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12184,49 +12180,49 @@
         <v>78</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="Y87" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="Y87" t="s" s="2">
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>615</v>
-      </c>
       <c r="AK87" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
